--- a/pred_ohlcv/54_21/2019-10-19 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 REP ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-719.9952000000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-713.4842000000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-652.3356000000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-658.1875000000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-657.8841326530613</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-566.0361326530614</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-772.0777326530613</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-971.1231326530612</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-999.5035326530613</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-778.1709326530613</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-809.7350326530614</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-823.9259326530614</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1624.154892195046</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1624.154892195046</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1557.085792195046</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1547.651092195046</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1615.397592195046</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1614.397592195046</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1564.397592195046</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1564.297592195046</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1570.513092195046</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1570.513092195046</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1568.513092195046</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1614.654692195046</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1614.654692195046</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1368.952776485885</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1389.868755148467</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1368.307655148468</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1338.667355148468</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1435.649955148468</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1435.649955148468</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1435.549955148468</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1397.968967156643</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1405.062867156644</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 REP ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-719.9952000000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-713.4842000000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-652.3356000000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-658.1875000000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-657.8841326530613</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-566.0361326530614</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-565.8909326530613</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-772.0777326530613</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-958.8653326530613</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-971.1231326530612</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-999.5035326530613</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-814.4480326530614</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-823.9259326530614</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-959.1661326530614</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-959.1661326530614</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-957.9990326530614</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-958.0990326530614</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1019.846432653061</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1017.357892195046</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1638.990292195046</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1557.205492195046</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1597.651092195046</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1564.297592195046</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1570.513092195046</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1570.513092195046</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1568.513092195046</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1614.654692195046</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1614.654692195046</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1592.058992195046</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1565.57773602787</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1651.20033602787</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1522.73933602787</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1523.04223602787</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-834.0832360278697</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-867.9397764858849</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-901.9397764858849</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1435.549955148468</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
